--- a/SALES STATEMENTS/BALANCE LIST.xlsx
+++ b/SALES STATEMENTS/BALANCE LIST.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>ALLWIN-PRAVEEN</t>
   </si>
@@ -57,9 +57,6 @@
     <t>MANOGAR</t>
   </si>
   <si>
-    <t>MURUGAN SAHADEVAN</t>
-  </si>
-  <si>
     <t>MURUGAPPAN</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>RAMIYYA</t>
   </si>
   <si>
-    <t>RAZZAK</t>
-  </si>
-  <si>
     <t>REES BLUE METALS</t>
   </si>
   <si>
@@ -163,13 +157,28 @@
   </si>
   <si>
     <t xml:space="preserve"> BALANCE</t>
+  </si>
+  <si>
+    <t>ARUL</t>
+  </si>
+  <si>
+    <t>REENA TRADERS</t>
+  </si>
+  <si>
+    <t>SUYAMBU</t>
+  </si>
+  <si>
+    <t>CLOSING BALANCE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +201,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -250,11 +295,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -262,8 +320,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,613 +651,683 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A46" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="16"/>
+    <col min="5" max="5" width="3.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
+    <col min="9" max="15" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:8" s="1" customFormat="1">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="25.5">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="17">
+        <v>13440</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>3980</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="E4" s="6">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="17">
+        <v>26205</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17">
+        <v>3190</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="E6" s="6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="17">
+        <v>12380</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="E7" s="6">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1070</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="E8" s="6">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="17">
+        <v>420</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="E9" s="6">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="17">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="E10" s="6">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="17">
+        <v>10910</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="E11" s="6">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17">
+        <v>580</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="E12" s="6">
+        <v>19</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="17">
+        <v>250</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="E13" s="6">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="17">
+        <v>3300</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="E14" s="6">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="17">
+        <v>240</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="E15" s="6">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="17">
+        <v>630</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="E16" s="6">
+        <v>24</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="17">
+        <v>6040</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" s="6">
+        <v>27</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="17">
+        <v>800</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" s="6">
+        <v>28</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="17">
+        <v>49880</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" s="6">
+        <v>29</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="17">
+        <v>10</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="6">
+        <v>31</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1710</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="5:8">
+      <c r="E21" s="6">
+        <v>32</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="17">
+        <v>60</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="5:8">
+      <c r="E22" s="6">
+        <v>33</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="17">
+        <v>410</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="5:8">
+      <c r="E23" s="6">
+        <v>34</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1610</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="5:8">
+      <c r="E24" s="6">
+        <v>35</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="17">
+        <v>618310</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="5:8">
+      <c r="E25" s="6">
+        <v>36</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="17">
+        <v>13770</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="5:8">
+      <c r="E26" s="6">
+        <v>37</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1240</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="5:8">
+      <c r="E27" s="6">
+        <v>40</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="17">
+        <v>11320</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="5:8">
+      <c r="E28" s="6">
+        <v>41</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="17">
+        <v>200</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="5:8">
+      <c r="E29" s="6">
+        <v>42</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="17">
+        <v>370</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="5:8">
+      <c r="E30" s="6">
+        <v>43</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="17">
+        <v>43300</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="5:8">
+      <c r="E31" s="6">
+        <v>45</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H1"/>
-    </row>
-    <row r="2" spans="5:8" ht="18.75">
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>29290</v>
-      </c>
-    </row>
-    <row r="3" spans="5:8" ht="18.75">
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>3980</v>
-      </c>
-    </row>
-    <row r="4" spans="5:8" ht="18.75">
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>6610</v>
-      </c>
-    </row>
-    <row r="5" spans="5:8" ht="18.75">
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4">
-        <v>12380</v>
-      </c>
-    </row>
-    <row r="6" spans="5:8" ht="18.75">
-      <c r="E6" s="2">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G31" s="17">
+        <v>1190</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="5:8">
+      <c r="E32" s="6">
+        <v>46</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="17">
+        <v>429580</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" s="6">
+        <v>47</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="17">
+        <f>384360-300440</f>
+        <v>83920</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34" s="6">
+        <v>48</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="17">
+        <v>18730</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35" s="6">
+        <v>49</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="17">
+        <v>800</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36" s="6">
+        <v>50</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="4">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="7" spans="5:8" ht="18.75">
-      <c r="E7" s="2">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="4">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="5:8" ht="18.75">
-      <c r="E8" s="2">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8" ht="18.75">
-      <c r="E9" s="2">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4">
-        <v>10910</v>
-      </c>
-    </row>
-    <row r="10" spans="5:8" ht="18.75">
-      <c r="E10" s="2">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4">
-        <v>3870</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8" ht="18.75">
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8" ht="18.75">
-      <c r="E12" s="2">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="4">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8" ht="18.75">
-      <c r="E13" s="2">
-        <v>12</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="5:8" ht="18.75">
-      <c r="E14" s="2">
-        <v>13</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="G36" s="17">
+        <v>19910</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37" s="6">
+        <v>51</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1960</v>
+      </c>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="E38" s="6">
+        <v>54</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="17">
+        <v>5960</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="E39" s="6">
+        <v>57</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="17">
+        <v>4060</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="E40" s="6">
+        <v>58</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="4">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="15" spans="5:8" ht="18.75">
-      <c r="E15" s="2">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="16" spans="5:8" ht="18.75">
-      <c r="E16" s="2">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="4">
-        <v>9400</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" ht="18.75">
-      <c r="E17" s="2">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="4">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" ht="18.75">
-      <c r="E18" s="2">
-        <v>17</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="4">
-        <v>49880</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" ht="18.75">
-      <c r="E19" s="2">
-        <v>18</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" ht="18.75">
-      <c r="E20" s="2">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" ht="18.75">
-      <c r="E21" s="2">
-        <v>20</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="G40" s="17">
+        <v>1150</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="E41" s="6">
+        <v>62</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="17">
+        <v>29700</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="E42" s="6">
+        <v>59</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="17">
+        <v>230</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="E43" s="6">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="5:7" ht="18.75">
-      <c r="E22" s="2">
-        <v>21</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="4">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" ht="18.75">
-      <c r="E23" s="2">
-        <v>22</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" ht="18.75">
-      <c r="E24" s="2">
-        <v>23</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="4">
-        <v>618310</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" ht="18.75">
-      <c r="E25" s="2">
-        <v>24</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="4">
-        <v>30330</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7" ht="18.75">
-      <c r="E26" s="2">
-        <v>25</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="4">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7" ht="18.75">
-      <c r="E27" s="2">
-        <v>26</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="4">
-        <v>11320</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7" ht="18.75">
-      <c r="E28" s="2">
-        <v>27</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="4">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="29" spans="5:7" ht="18.75">
-      <c r="E29" s="2">
-        <v>28</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="4">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="5:7" ht="18.75">
-      <c r="E30" s="2">
-        <v>29</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="4">
-        <v>43300</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7" ht="18.75">
-      <c r="E31" s="2">
-        <v>30</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="5:7" ht="18.75">
-      <c r="E32" s="2">
-        <v>31</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="4">
-        <v>429580</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" ht="18.75">
-      <c r="E33" s="2">
-        <v>32</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G33" s="4">
-        <f>355780-300440</f>
-        <v>55340</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" ht="18.75">
-      <c r="E34" s="2">
+      <c r="F43" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="4">
-        <v>18730</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" ht="18.75">
-      <c r="E35" s="2">
+      <c r="G43" s="17">
+        <v>2140</v>
+      </c>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="5:8">
+      <c r="E44" s="6">
+        <v>61</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" ht="18.75">
-      <c r="E36" s="2">
+      <c r="G44" s="17">
+        <v>3710</v>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="E45" s="6">
+        <v>63</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="4">
-        <v>19910</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" ht="18.75">
-      <c r="E37" s="2">
+      <c r="G45" s="17">
+        <v>180</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="5:8">
+      <c r="E46" s="6">
+        <v>64</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="4">
-        <v>3710</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" ht="18.75">
-      <c r="E38" s="2">
+      <c r="G46" s="17">
+        <v>37350</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="5:8">
+      <c r="E47" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="7">
+        <f>SUM(G2:G46)</f>
+        <v>1466235</v>
+      </c>
+      <c r="H47"/>
+    </row>
+    <row r="49" spans="5:7" ht="17.25" customHeight="1"/>
+    <row r="50" spans="5:7" ht="27.75" customHeight="1">
+      <c r="E50" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="4">
-        <v>5960</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" ht="18.75">
-      <c r="E39" s="2">
-        <v>38</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" ht="18.75">
-      <c r="E40" s="2">
-        <v>39</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="G50" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G40" s="4">
-        <v>16710</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7" ht="18.75">
-      <c r="E41" s="2">
-        <v>40</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="4">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7" ht="18.75">
-      <c r="E42" s="2">
-        <v>41</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" s="4">
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7" ht="18.75">
-      <c r="E43" s="2">
-        <v>42</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7" ht="18.75">
-      <c r="E44" s="2">
-        <v>43</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" s="4">
-        <v>9510</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" ht="18.75">
-      <c r="E45" s="2">
-        <v>44</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="4">
-        <v>37350</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="2">
-        <f>SUM(G2:G45)</f>
-        <v>1446890</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7">
-      <c r="E49" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" ht="18.75">
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" s="4">
-        <v>429580</v>
       </c>
     </row>
     <row r="51" spans="5:7" ht="18.75">
       <c r="E51" s="2">
-        <v>2</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="G51" s="4">
-        <v>18730</v>
+        <v>429580</v>
       </c>
     </row>
     <row r="52" spans="5:7" ht="18.75">
       <c r="E52" s="2">
-        <v>3</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="G52" s="4">
-        <v>19910</v>
+        <v>18730</v>
       </c>
     </row>
     <row r="53" spans="5:7" ht="18.75">
       <c r="E53" s="2">
-        <v>4</v>
-      </c>
-      <c r="F53" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F53" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="G53" s="4">
-        <v>12380</v>
+        <v>19910</v>
       </c>
     </row>
     <row r="54" spans="5:7" ht="18.75">
       <c r="E54" s="2">
+        <v>4</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="4">
+        <v>12380</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" ht="18.75">
+      <c r="E55" s="2">
         <v>5</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="4">
+      <c r="F55" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="4">
         <v>618310</v>
       </c>
     </row>
-    <row r="55" spans="5:7">
-      <c r="E55" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="2">
-        <f>SUM(G50:G54)</f>
+    <row r="56" spans="5:7">
+      <c r="E56" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="2">
+        <f>SUM(G51:G55)</f>
         <v>1098910</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="G58" s="10">
+        <f>ABS(G56-G47)</f>
+        <v>367325</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="2" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="2" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
